--- a/data/resumes_scrubbed/confirmations/99_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/99_2.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/Data/ResumesScrubbed/Confirmations/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="140" documentId="8_{07C97414-93B3-4883-95AE-D3ECA86383D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{085FB587-DDB6-4C1B-ADD6-D96219B45700}"/>
+  <xr:revisionPtr revIDLastSave="164" documentId="8_{07C97414-93B3-4883-95AE-D3ECA86383D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429AE659-19B4-4A35-8F2A-4E86FE4C90A4}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,29 +20,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="23">
-  <si>
-    <t>Summary</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>Civilian</t>
   </si>
   <si>
-    <t xml:space="preserve">     New nominations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Carryover nominations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Confirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Unconfirmed</t>
-  </si>
-  <si>
-    <t xml:space="preserve">     Withdraw</t>
-  </si>
-  <si>
     <t>Civilian lists</t>
   </si>
   <si>
@@ -61,9 +43,6 @@
     <t>Total carryover nominations</t>
   </si>
   <si>
-    <t>Total new nominations received</t>
-  </si>
-  <si>
     <t>Total confirmed</t>
   </si>
   <si>
@@ -76,9 +55,6 @@
     <t>Label</t>
   </si>
   <si>
-    <t>Value</t>
-  </si>
-  <si>
     <t>Congress</t>
   </si>
   <si>
@@ -89,6 +65,72 @@
   </si>
   <si>
     <t>End Date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian lists, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian lists, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian lists, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian lists, Unconfirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Air Force, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Army, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Navy, Confirmed</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, New nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Carryover nominations</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Marine Corps, Confirmed</t>
+  </si>
+  <si>
+    <t>Total new nominations</t>
+  </si>
+  <si>
+    <t>Values</t>
+  </si>
+  <si>
+    <t xml:space="preserve">     Civilian, Withdrawn</t>
   </si>
 </sst>
 </file>
@@ -635,6 +677,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -955,11 +1001,9 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr codeName="Sheet1"/>
-  <dimension ref="A1:B37"/>
+  <dimension ref="A1:B36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
@@ -969,15 +1013,15 @@
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="B2">
         <v>99</v>
@@ -985,7 +1029,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -993,7 +1037,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="B4" s="3">
         <v>31433</v>
@@ -1001,7 +1045,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="B5" s="3">
         <v>31703</v>
@@ -1009,12 +1053,12 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B7">
         <v>420</v>
@@ -1022,7 +1066,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="B8">
         <v>68</v>
@@ -1030,7 +1074,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>4</v>
+        <v>17</v>
       </c>
       <c r="B9">
         <v>411</v>
@@ -1038,7 +1082,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>5</v>
+        <v>18</v>
       </c>
       <c r="B10">
         <v>69</v>
@@ -1046,7 +1090,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>6</v>
+        <v>36</v>
       </c>
       <c r="B11">
         <v>8</v>
@@ -1054,12 +1098,12 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>7</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>2</v>
+        <v>19</v>
       </c>
       <c r="B13" s="1">
         <v>1626</v>
@@ -1067,7 +1111,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>20</v>
       </c>
       <c r="B14">
         <v>1</v>
@@ -1075,7 +1119,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>4</v>
+        <v>21</v>
       </c>
       <c r="B15" s="1">
         <v>1626</v>
@@ -1083,7 +1127,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>5</v>
+        <v>22</v>
       </c>
       <c r="B16">
         <v>1</v>
@@ -1091,12 +1135,12 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>8</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>2</v>
+        <v>23</v>
       </c>
       <c r="B18" s="1">
         <v>12246</v>
@@ -1104,7 +1148,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>3</v>
+        <v>24</v>
       </c>
       <c r="B19">
         <v>2354</v>
@@ -1112,7 +1156,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
-        <v>4</v>
+        <v>25</v>
       </c>
       <c r="B20" s="1">
         <v>14600</v>
@@ -1120,12 +1164,12 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>9</v>
+        <v>3</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>2</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1">
         <v>9918</v>
@@ -1133,7 +1177,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>3</v>
+        <v>27</v>
       </c>
       <c r="B23">
         <v>892</v>
@@ -1141,7 +1185,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>4</v>
+        <v>28</v>
       </c>
       <c r="B24" s="1">
         <v>10810</v>
@@ -1149,12 +1193,12 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>2</v>
+        <v>29</v>
       </c>
       <c r="B26" s="1">
         <v>9952</v>
@@ -1162,7 +1206,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>4</v>
+        <v>30</v>
       </c>
       <c r="B27" s="1">
         <v>9952</v>
@@ -1170,12 +1214,12 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>11</v>
+        <v>5</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B29" s="1">
         <v>2132</v>
@@ -1183,7 +1227,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="B30" s="1">
         <v>362</v>
@@ -1191,7 +1235,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>4</v>
+        <v>33</v>
       </c>
       <c r="B31" s="1">
         <v>2494</v>
@@ -1199,46 +1243,41 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>0</v>
+        <v>34</v>
+      </c>
+      <c r="B32" s="1">
+        <v>37294</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="B33" s="1">
-        <v>37294</v>
+        <v>3677</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>3677</v>
+        <v>39983</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="B35" s="1">
-        <v>39983</v>
+        <v>70</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="B36" s="1">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" t="s">
-        <v>16</v>
-      </c>
-      <c r="B37" s="1">
         <v>8</v>
       </c>
     </row>

--- a/data/resumes_scrubbed/confirmations/99_2.xlsx
+++ b/data/resumes_scrubbed/confirmations/99_2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/4a41d8b392a254fb/Documents/Career/Portfolio Projects/Congressional Data Scrape and Validation/data/resumes_scrubbed/confirmations/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="164" documentId="8_{07C97414-93B3-4883-95AE-D3ECA86383D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{429AE659-19B4-4A35-8F2A-4E86FE4C90A4}"/>
+  <xr:revisionPtr revIDLastSave="166" documentId="8_{07C97414-93B3-4883-95AE-D3ECA86383D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{61BF98FA-8705-4D89-BA20-4E761FA40CE8}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabula-99res_2" sheetId="1" r:id="rId1"/>
@@ -1246,7 +1246,7 @@
         <v>34</v>
       </c>
       <c r="B32" s="1">
-        <v>37294</v>
+        <v>36294</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
@@ -1262,7 +1262,7 @@
         <v>7</v>
       </c>
       <c r="B34" s="1">
-        <v>39983</v>
+        <v>39893</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
